--- a/graphics/layouts/MapToolbox.xlsx
+++ b/graphics/layouts/MapToolbox.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3474" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3583" uniqueCount="218">
   <si>
     <t>},</t>
   </si>
@@ -198,9 +198,6 @@
     <t xml:space="preserve">  "rotz"</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Primary trigger" </t>
-  </si>
-  <si>
     <t xml:space="preserve"> "PoV hat up" </t>
   </si>
   <si>
@@ -360,57 +357,6 @@
     <t xml:space="preserve">       "Input"</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Bottom button" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Left-hand button" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Right-hand button" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Left bank top-left button" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Left bank top-middle button" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Left bank top-right button" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Left bank bottom-right button" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Left bank bottom-middle button" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Left bank bottom-left button" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Right bank top-right button" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Right bank top-middle button" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Right bank top-left button" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Right bank bottom-left button" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Right bank bottom-middle button" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Right bank bottom-right button" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Stick twist" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Stick throttle slider" </t>
-  </si>
-  <si>
     <t>"triggerl_btn"</t>
   </si>
   <si>
@@ -595,6 +541,144 @@
   </si>
   <si>
     <t xml:space="preserve"> "thumblx"</t>
+  </si>
+  <si>
+    <t>Trigger first stage</t>
+  </si>
+  <si>
+    <t>Trigger second stage</t>
+  </si>
+  <si>
+    <t>Trigger button</t>
+  </si>
+  <si>
+    <t>Wheel up</t>
+  </si>
+  <si>
+    <t>Wheel down</t>
+  </si>
+  <si>
+    <t>Wheel push</t>
+  </si>
+  <si>
+    <t>Mini-joystick push</t>
+  </si>
+  <si>
+    <t>4-way hat right up</t>
+  </si>
+  <si>
+    <t>4-way hat right righ</t>
+  </si>
+  <si>
+    <t>4-way hat right down</t>
+  </si>
+  <si>
+    <t>4-way hat right left</t>
+  </si>
+  <si>
+    <t>4-way hat right push?</t>
+  </si>
+  <si>
+    <t>4-way hat left up</t>
+  </si>
+  <si>
+    <t>4-way hat left righ</t>
+  </si>
+  <si>
+    <t>4-way hat left down</t>
+  </si>
+  <si>
+    <t>4-way hat left left</t>
+  </si>
+  <si>
+    <t>4-way hat left push?</t>
+  </si>
+  <si>
+    <t>8-way hat LED up</t>
+  </si>
+  <si>
+    <t>8-way hat LED righ</t>
+  </si>
+  <si>
+    <t>8-way hat LED down</t>
+  </si>
+  <si>
+    <t>8-way hat LED left</t>
+  </si>
+  <si>
+    <t>8-way hat LED push?</t>
+  </si>
+  <si>
+    <t>Joystick axis X</t>
+  </si>
+  <si>
+    <t>Joystick axis Y</t>
+  </si>
+  <si>
+    <t>Joystick axis Rot</t>
+  </si>
+  <si>
+    <t>Mini-joysticks axis X</t>
+  </si>
+  <si>
+    <t>Mini-joysticks axis Y</t>
+  </si>
+  <si>
+    <t>"Trigger first stage"</t>
+  </si>
+  <si>
+    <t>"Trigger second stage"</t>
+  </si>
+  <si>
+    <t>"Trigger button"</t>
+  </si>
+  <si>
+    <t>"Wheel up"</t>
+  </si>
+  <si>
+    <t>"Wheel down"</t>
+  </si>
+  <si>
+    <t>"Wheel push"</t>
+  </si>
+  <si>
+    <t>"Mini-joystick push"</t>
+  </si>
+  <si>
+    <t>"4-way hat right up"</t>
+  </si>
+  <si>
+    <t>"4-way hat right righ"</t>
+  </si>
+  <si>
+    <t>"4-way hat right down"</t>
+  </si>
+  <si>
+    <t>"Joystick axis X"</t>
+  </si>
+  <si>
+    <t>"Joystick axis Y"</t>
+  </si>
+  <si>
+    <t>"Joystick axis Rot"</t>
+  </si>
+  <si>
+    <t>"Mini-joysticks axis X"</t>
+  </si>
+  <si>
+    <t>"Mini-joysticks axis Y"</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
   </si>
 </sst>
 </file>
@@ -630,9 +714,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -916,7 +1001,7 @@
   <dimension ref="A2:AR112"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:AR17"/>
+      <selection activeCell="AE2" sqref="AE2:AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +1043,7 @@
   <sheetData>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -973,31 +1058,31 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <v>1997</v>
+        <v>2035</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2">
-        <v>792</v>
+        <v>1282</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
       <c r="J2">
-        <v>660</v>
+        <v>770</v>
       </c>
       <c r="K2" t="s">
         <v>9</v>
       </c>
       <c r="L2">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
-        <v>57</v>
+      <c r="N2" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="Q2" t="s">
         <v>10</v>
@@ -1030,7 +1115,7 @@
         <v>51</v>
       </c>
       <c r="AA2">
-        <v>1997</v>
+        <v>2035</v>
       </c>
       <c r="AB2" t="s">
         <v>52</v>
@@ -1042,7 +1127,7 @@
         <v>51</v>
       </c>
       <c r="AE2">
-        <v>792</v>
+        <v>1282</v>
       </c>
       <c r="AF2" t="s">
         <v>52</v>
@@ -1054,7 +1139,7 @@
         <v>51</v>
       </c>
       <c r="AI2">
-        <v>660</v>
+        <v>770</v>
       </c>
       <c r="AJ2" t="s">
         <v>52</v>
@@ -1066,7 +1151,7 @@
         <v>51</v>
       </c>
       <c r="AM2">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AN2" t="s">
         <v>52</v>
@@ -1077,8 +1162,8 @@
       <c r="AP2" t="s">
         <v>51</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>57</v>
+      <c r="AQ2" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="AR2" t="s">
         <v>0</v>
@@ -1086,7 +1171,7 @@
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1101,13 +1186,13 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>2915</v>
+        <v>2035</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3">
-        <v>726</v>
+        <v>1330</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -1124,8 +1209,8 @@
       <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" t="s">
-        <v>111</v>
+      <c r="N3" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="Q3" t="s">
         <v>10</v>
@@ -1158,7 +1243,7 @@
         <v>51</v>
       </c>
       <c r="AA3">
-        <v>2915</v>
+        <v>2035</v>
       </c>
       <c r="AB3" t="s">
         <v>52</v>
@@ -1170,7 +1255,7 @@
         <v>51</v>
       </c>
       <c r="AE3">
-        <v>726</v>
+        <v>1330</v>
       </c>
       <c r="AF3" t="s">
         <v>52</v>
@@ -1205,8 +1290,8 @@
       <c r="AP3" t="s">
         <v>51</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>111</v>
+      <c r="AQ3" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="AR3" t="s">
         <v>0</v>
@@ -1214,7 +1299,7 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1229,13 +1314,13 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <v>1814</v>
+        <v>2102</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4">
-        <v>509</v>
+        <v>1488</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -1252,8 +1337,8 @@
       <c r="M4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" t="s">
-        <v>112</v>
+      <c r="N4" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="Q4" t="s">
         <v>10</v>
@@ -1286,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="AA4">
-        <v>1814</v>
+        <v>2102</v>
       </c>
       <c r="AB4" t="s">
         <v>52</v>
@@ -1298,7 +1383,7 @@
         <v>51</v>
       </c>
       <c r="AE4">
-        <v>509</v>
+        <v>1488</v>
       </c>
       <c r="AF4" t="s">
         <v>52</v>
@@ -1333,8 +1418,8 @@
       <c r="AP4" t="s">
         <v>51</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>112</v>
+      <c r="AQ4" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="AR4" t="s">
         <v>0</v>
@@ -1342,7 +1427,7 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1357,19 +1442,19 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>2910</v>
+        <v>3178</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
       </c>
       <c r="H5">
-        <v>509</v>
+        <v>1375</v>
       </c>
       <c r="I5" t="s">
         <v>8</v>
       </c>
       <c r="J5">
-        <v>770</v>
+        <v>660</v>
       </c>
       <c r="K5" t="s">
         <v>9</v>
@@ -1380,8 +1465,8 @@
       <c r="M5" t="s">
         <v>12</v>
       </c>
-      <c r="N5" t="s">
-        <v>113</v>
+      <c r="N5" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="Q5" t="s">
         <v>10</v>
@@ -1414,7 +1499,7 @@
         <v>51</v>
       </c>
       <c r="AA5">
-        <v>2910</v>
+        <v>3178</v>
       </c>
       <c r="AB5" t="s">
         <v>52</v>
@@ -1426,7 +1511,7 @@
         <v>51</v>
       </c>
       <c r="AE5">
-        <v>509</v>
+        <v>1375</v>
       </c>
       <c r="AF5" t="s">
         <v>52</v>
@@ -1438,7 +1523,7 @@
         <v>51</v>
       </c>
       <c r="AI5">
-        <v>770</v>
+        <v>660</v>
       </c>
       <c r="AJ5" t="s">
         <v>52</v>
@@ -1461,8 +1546,8 @@
       <c r="AP5" t="s">
         <v>51</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>113</v>
+      <c r="AQ5" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="AR5" t="s">
         <v>0</v>
@@ -1470,7 +1555,7 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1485,19 +1570,19 @@
         <v>6</v>
       </c>
       <c r="F6">
-        <v>1933</v>
+        <v>3178</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
       <c r="H6">
-        <v>953</v>
+        <v>1425</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
       </c>
       <c r="J6">
-        <v>770</v>
+        <v>660</v>
       </c>
       <c r="K6" t="s">
         <v>9</v>
@@ -1508,8 +1593,8 @@
       <c r="M6" t="s">
         <v>12</v>
       </c>
-      <c r="N6" t="s">
-        <v>114</v>
+      <c r="N6" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="Q6" t="s">
         <v>10</v>
@@ -1542,7 +1627,7 @@
         <v>51</v>
       </c>
       <c r="AA6">
-        <v>1272</v>
+        <v>3178</v>
       </c>
       <c r="AB6" t="s">
         <v>52</v>
@@ -1554,7 +1639,7 @@
         <v>51</v>
       </c>
       <c r="AE6">
-        <v>1056</v>
+        <v>1425</v>
       </c>
       <c r="AF6" t="s">
         <v>52</v>
@@ -1566,7 +1651,7 @@
         <v>51</v>
       </c>
       <c r="AI6">
-        <v>770</v>
+        <v>660</v>
       </c>
       <c r="AJ6" t="s">
         <v>52</v>
@@ -1589,8 +1674,8 @@
       <c r="AP6" t="s">
         <v>51</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>114</v>
+      <c r="AQ6" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="AR6" t="s">
         <v>0</v>
@@ -1598,7 +1683,7 @@
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -1613,19 +1698,19 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>1933</v>
+        <v>3178</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
       <c r="H7">
-        <v>1003</v>
+        <v>1476</v>
       </c>
       <c r="I7" t="s">
         <v>8</v>
       </c>
       <c r="J7">
-        <v>770</v>
+        <v>660</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
@@ -1636,8 +1721,8 @@
       <c r="M7" t="s">
         <v>12</v>
       </c>
-      <c r="N7" t="s">
-        <v>115</v>
+      <c r="N7" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="Q7" t="s">
         <v>10</v>
@@ -1670,7 +1755,7 @@
         <v>51</v>
       </c>
       <c r="AA7">
-        <v>1272</v>
+        <v>3178</v>
       </c>
       <c r="AB7" t="s">
         <v>52</v>
@@ -1682,7 +1767,7 @@
         <v>51</v>
       </c>
       <c r="AE7">
-        <v>1107</v>
+        <v>1476</v>
       </c>
       <c r="AF7" t="s">
         <v>52</v>
@@ -1694,7 +1779,7 @@
         <v>51</v>
       </c>
       <c r="AI7">
-        <v>770</v>
+        <v>660</v>
       </c>
       <c r="AJ7" t="s">
         <v>52</v>
@@ -1717,8 +1802,8 @@
       <c r="AP7" t="s">
         <v>51</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>115</v>
+      <c r="AQ7" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="AR7" t="s">
         <v>0</v>
@@ -1726,7 +1811,7 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -1735,25 +1820,25 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>1933</v>
+        <v>3178</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
       <c r="H8">
-        <v>1054</v>
+        <v>1216</v>
       </c>
       <c r="I8" t="s">
         <v>8</v>
       </c>
       <c r="J8">
-        <v>770</v>
+        <v>660</v>
       </c>
       <c r="K8" t="s">
         <v>9</v>
@@ -1764,8 +1849,8 @@
       <c r="M8" t="s">
         <v>12</v>
       </c>
-      <c r="N8" t="s">
-        <v>116</v>
+      <c r="N8" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="Q8" t="s">
         <v>10</v>
@@ -1798,7 +1883,7 @@
         <v>51</v>
       </c>
       <c r="AA8">
-        <v>1272</v>
+        <v>3178</v>
       </c>
       <c r="AB8" t="s">
         <v>52</v>
@@ -1810,7 +1895,7 @@
         <v>51</v>
       </c>
       <c r="AE8">
-        <v>1157</v>
+        <v>1216</v>
       </c>
       <c r="AF8" t="s">
         <v>52</v>
@@ -1822,7 +1907,7 @@
         <v>51</v>
       </c>
       <c r="AI8">
-        <v>770</v>
+        <v>660</v>
       </c>
       <c r="AJ8" t="s">
         <v>52</v>
@@ -1845,8 +1930,8 @@
       <c r="AP8" t="s">
         <v>51</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>116</v>
+      <c r="AQ8" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="AR8" t="s">
         <v>0</v>
@@ -1854,7 +1939,7 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1863,19 +1948,19 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9">
-        <v>1618</v>
+        <v>3069</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
       </c>
       <c r="H9">
-        <v>1677</v>
+        <v>593</v>
       </c>
       <c r="I9" t="s">
         <v>8</v>
@@ -1892,8 +1977,8 @@
       <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="N9" t="s">
-        <v>117</v>
+      <c r="N9" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="Q9" t="s">
         <v>10</v>
@@ -1926,7 +2011,7 @@
         <v>51</v>
       </c>
       <c r="AA9">
-        <v>1595</v>
+        <v>3069</v>
       </c>
       <c r="AB9" t="s">
         <v>52</v>
@@ -1938,7 +2023,7 @@
         <v>51</v>
       </c>
       <c r="AE9">
-        <v>1450</v>
+        <v>593</v>
       </c>
       <c r="AF9" t="s">
         <v>52</v>
@@ -1973,8 +2058,8 @@
       <c r="AP9" t="s">
         <v>51</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>117</v>
+      <c r="AQ9" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="AR9" t="s">
         <v>0</v>
@@ -1982,7 +2067,7 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1991,19 +2076,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10">
-        <v>1618</v>
+        <v>3069</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
       </c>
       <c r="H10">
-        <v>1626</v>
+        <v>648</v>
       </c>
       <c r="I10" t="s">
         <v>8</v>
@@ -2020,8 +2105,8 @@
       <c r="M10" t="s">
         <v>12</v>
       </c>
-      <c r="N10" t="s">
-        <v>118</v>
+      <c r="N10" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="Q10" t="s">
         <v>10</v>
@@ -2054,7 +2139,7 @@
         <v>51</v>
       </c>
       <c r="AA10">
-        <v>1595</v>
+        <v>3069</v>
       </c>
       <c r="AB10" t="s">
         <v>52</v>
@@ -2066,7 +2151,7 @@
         <v>51</v>
       </c>
       <c r="AE10">
-        <v>1399</v>
+        <v>648</v>
       </c>
       <c r="AF10" t="s">
         <v>52</v>
@@ -2101,8 +2186,8 @@
       <c r="AP10" t="s">
         <v>51</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>118</v>
+      <c r="AQ10" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="AR10" t="s">
         <v>0</v>
@@ -2110,7 +2195,7 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -2119,19 +2204,19 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11">
-        <v>1618</v>
+        <v>3069</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
       </c>
       <c r="H11">
-        <v>1574</v>
+        <v>700</v>
       </c>
       <c r="I11" t="s">
         <v>8</v>
@@ -2148,8 +2233,8 @@
       <c r="M11" t="s">
         <v>12</v>
       </c>
-      <c r="N11" t="s">
-        <v>119</v>
+      <c r="N11" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="Q11" t="s">
         <v>10</v>
@@ -2182,7 +2267,7 @@
         <v>51</v>
       </c>
       <c r="AA11">
-        <v>1595</v>
+        <v>3069</v>
       </c>
       <c r="AB11" t="s">
         <v>52</v>
@@ -2194,7 +2279,7 @@
         <v>51</v>
       </c>
       <c r="AE11">
-        <v>1347</v>
+        <v>700</v>
       </c>
       <c r="AF11" t="s">
         <v>52</v>
@@ -2229,8 +2314,8 @@
       <c r="AP11" t="s">
         <v>51</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>119</v>
+      <c r="AQ11" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="AR11" t="s">
         <v>0</v>
@@ -2238,7 +2323,7 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -2252,14 +2337,14 @@
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="1">
-        <v>3164</v>
+      <c r="F12">
+        <v>3069</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="1">
-        <v>1122</v>
+      <c r="H12">
+        <v>753</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
@@ -2276,8 +2361,8 @@
       <c r="M12" t="s">
         <v>12</v>
       </c>
-      <c r="N12" t="s">
-        <v>120</v>
+      <c r="N12" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="Q12" t="s">
         <v>10</v>
@@ -2310,7 +2395,7 @@
         <v>51</v>
       </c>
       <c r="AA12">
-        <v>16</v>
+        <v>3069</v>
       </c>
       <c r="AB12" t="s">
         <v>52</v>
@@ -2322,7 +2407,7 @@
         <v>51</v>
       </c>
       <c r="AE12">
-        <v>1112</v>
+        <v>753</v>
       </c>
       <c r="AF12" t="s">
         <v>52</v>
@@ -2357,8 +2442,8 @@
       <c r="AP12" t="s">
         <v>51</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>120</v>
+      <c r="AQ12" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="AR12" t="s">
         <v>0</v>
@@ -2366,7 +2451,7 @@
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -2381,13 +2466,13 @@
         <v>6</v>
       </c>
       <c r="F13" s="1">
-        <v>3164</v>
+        <v>3069</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="1">
-        <v>1172</v>
+        <v>804</v>
       </c>
       <c r="I13" t="s">
         <v>8</v>
@@ -2404,8 +2489,8 @@
       <c r="M13" t="s">
         <v>12</v>
       </c>
-      <c r="N13" t="s">
-        <v>121</v>
+      <c r="N13" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="Q13" t="s">
         <v>10</v>
@@ -2437,8 +2522,8 @@
       <c r="Z13" t="s">
         <v>51</v>
       </c>
-      <c r="AA13">
-        <v>16</v>
+      <c r="AA13" s="1">
+        <v>3069</v>
       </c>
       <c r="AB13" t="s">
         <v>52</v>
@@ -2449,8 +2534,8 @@
       <c r="AD13" t="s">
         <v>51</v>
       </c>
-      <c r="AE13">
-        <v>1164</v>
+      <c r="AE13" s="1">
+        <v>804</v>
       </c>
       <c r="AF13" t="s">
         <v>52</v>
@@ -2485,8 +2570,8 @@
       <c r="AP13" t="s">
         <v>51</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>121</v>
+      <c r="AQ13" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="AR13" t="s">
         <v>0</v>
@@ -2494,7 +2579,7 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -2509,13 +2594,13 @@
         <v>6</v>
       </c>
       <c r="F14" s="1">
-        <v>3164</v>
+        <v>1859</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="1">
-        <v>1223</v>
+        <v>939</v>
       </c>
       <c r="I14" t="s">
         <v>8</v>
@@ -2532,8 +2617,8 @@
       <c r="M14" t="s">
         <v>12</v>
       </c>
-      <c r="N14" t="s">
-        <v>122</v>
+      <c r="N14" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="Q14" t="s">
         <v>10</v>
@@ -2565,8 +2650,8 @@
       <c r="Z14" t="s">
         <v>51</v>
       </c>
-      <c r="AA14">
-        <v>16</v>
+      <c r="AA14" s="1">
+        <v>1859</v>
       </c>
       <c r="AB14" t="s">
         <v>52</v>
@@ -2577,8 +2662,8 @@
       <c r="AD14" t="s">
         <v>51</v>
       </c>
-      <c r="AE14">
-        <v>1214</v>
+      <c r="AE14" s="1">
+        <v>939</v>
       </c>
       <c r="AF14" t="s">
         <v>52</v>
@@ -2613,8 +2698,8 @@
       <c r="AP14" t="s">
         <v>51</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>122</v>
+      <c r="AQ14" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="AR14" t="s">
         <v>0</v>
@@ -2622,7 +2707,7 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -2637,13 +2722,13 @@
         <v>6</v>
       </c>
       <c r="F15" s="1">
-        <v>3166</v>
+        <v>1859</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="1">
-        <v>1721</v>
+        <v>992</v>
       </c>
       <c r="I15" t="s">
         <v>8</v>
@@ -2660,8 +2745,8 @@
       <c r="M15" t="s">
         <v>12</v>
       </c>
-      <c r="N15" t="s">
-        <v>123</v>
+      <c r="N15" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="Q15" t="s">
         <v>10</v>
@@ -2693,8 +2778,8 @@
       <c r="Z15" t="s">
         <v>51</v>
       </c>
-      <c r="AA15">
-        <v>16</v>
+      <c r="AA15" s="1">
+        <v>1859</v>
       </c>
       <c r="AB15" t="s">
         <v>52</v>
@@ -2705,8 +2790,8 @@
       <c r="AD15" t="s">
         <v>51</v>
       </c>
-      <c r="AE15">
-        <v>1730</v>
+      <c r="AE15" s="1">
+        <v>992</v>
       </c>
       <c r="AF15" t="s">
         <v>52</v>
@@ -2741,8 +2826,8 @@
       <c r="AP15" t="s">
         <v>51</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>123</v>
+      <c r="AQ15" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="AR15" t="s">
         <v>0</v>
@@ -2750,7 +2835,7 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -2765,13 +2850,13 @@
         <v>6</v>
       </c>
       <c r="F16" s="1">
-        <v>3166</v>
+        <v>1859</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="1">
-        <v>1669</v>
+        <v>1045</v>
       </c>
       <c r="I16" t="s">
         <v>8</v>
@@ -2788,8 +2873,8 @@
       <c r="M16" t="s">
         <v>12</v>
       </c>
-      <c r="N16" t="s">
-        <v>124</v>
+      <c r="N16" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="Q16" t="s">
         <v>10</v>
@@ -2822,7 +2907,7 @@
         <v>51</v>
       </c>
       <c r="AA16" s="1">
-        <v>16</v>
+        <v>1859</v>
       </c>
       <c r="AB16" t="s">
         <v>52</v>
@@ -2834,7 +2919,7 @@
         <v>51</v>
       </c>
       <c r="AE16" s="1">
-        <v>1679</v>
+        <v>1045</v>
       </c>
       <c r="AF16" t="s">
         <v>52</v>
@@ -2869,8 +2954,8 @@
       <c r="AP16" t="s">
         <v>51</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>124</v>
+      <c r="AQ16" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="AR16" t="s">
         <v>0</v>
@@ -2878,7 +2963,7 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -2893,13 +2978,13 @@
         <v>6</v>
       </c>
       <c r="F17" s="1">
-        <v>3166</v>
+        <v>1859</v>
       </c>
       <c r="G17" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="1">
-        <v>1619</v>
+        <v>1098</v>
       </c>
       <c r="I17" t="s">
         <v>8</v>
@@ -2916,8 +3001,8 @@
       <c r="M17" t="s">
         <v>12</v>
       </c>
-      <c r="N17" t="s">
-        <v>125</v>
+      <c r="N17" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="Q17" t="s">
         <v>10</v>
@@ -2950,7 +3035,7 @@
         <v>51</v>
       </c>
       <c r="AA17" s="1">
-        <v>16</v>
+        <v>1859</v>
       </c>
       <c r="AB17" t="s">
         <v>52</v>
@@ -2962,7 +3047,7 @@
         <v>51</v>
       </c>
       <c r="AE17" s="1">
-        <v>1629</v>
+        <v>1098</v>
       </c>
       <c r="AF17" t="s">
         <v>52</v>
@@ -2997,8 +3082,8 @@
       <c r="AP17" t="s">
         <v>51</v>
       </c>
-      <c r="AQ17" t="s">
-        <v>125</v>
+      <c r="AQ17" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="AR17" t="s">
         <v>0</v>
@@ -3006,10 +3091,10 @@
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -3020,14 +3105,14 @@
       <c r="E18" t="s">
         <v>6</v>
       </c>
-      <c r="F18">
-        <v>2395</v>
+      <c r="F18" s="1">
+        <v>1859</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
       </c>
-      <c r="H18">
-        <v>230</v>
+      <c r="H18" s="1">
+        <v>1150</v>
       </c>
       <c r="I18" t="s">
         <v>8</v>
@@ -3044,8 +3129,8 @@
       <c r="M18" t="s">
         <v>12</v>
       </c>
-      <c r="N18" t="s">
-        <v>58</v>
+      <c r="N18" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="Q18" t="s">
         <v>10</v>
@@ -3054,7 +3139,7 @@
         <v>51</v>
       </c>
       <c r="S18" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="T18" t="s">
         <v>52</v>
@@ -3077,8 +3162,8 @@
       <c r="Z18" t="s">
         <v>51</v>
       </c>
-      <c r="AA18">
-        <v>2395</v>
+      <c r="AA18" s="1">
+        <v>1859</v>
       </c>
       <c r="AB18" t="s">
         <v>52</v>
@@ -3089,8 +3174,8 @@
       <c r="AD18" t="s">
         <v>51</v>
       </c>
-      <c r="AE18">
-        <v>230</v>
+      <c r="AE18" s="1">
+        <v>1150</v>
       </c>
       <c r="AF18" t="s">
         <v>52</v>
@@ -3125,8 +3210,8 @@
       <c r="AP18" t="s">
         <v>51</v>
       </c>
-      <c r="AQ18" t="s">
-        <v>58</v>
+      <c r="AQ18" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="AR18" t="s">
         <v>0</v>
@@ -3134,10 +3219,10 @@
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -3149,13 +3234,13 @@
         <v>6</v>
       </c>
       <c r="F19">
-        <v>2395</v>
+        <v>2276</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
       </c>
       <c r="H19">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="I19" t="s">
         <v>8</v>
@@ -3172,8 +3257,8 @@
       <c r="M19" t="s">
         <v>12</v>
       </c>
-      <c r="N19" t="s">
-        <v>59</v>
+      <c r="N19" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="Q19" t="s">
         <v>10</v>
@@ -3182,7 +3267,7 @@
         <v>51</v>
       </c>
       <c r="S19" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="T19" t="s">
         <v>52</v>
@@ -3206,7 +3291,7 @@
         <v>51</v>
       </c>
       <c r="AA19">
-        <v>2395</v>
+        <v>2276</v>
       </c>
       <c r="AB19" t="s">
         <v>52</v>
@@ -3218,7 +3303,7 @@
         <v>51</v>
       </c>
       <c r="AE19">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AF19" t="s">
         <v>52</v>
@@ -3253,8 +3338,8 @@
       <c r="AP19" t="s">
         <v>51</v>
       </c>
-      <c r="AQ19" t="s">
-        <v>59</v>
+      <c r="AQ19" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="AR19" t="s">
         <v>0</v>
@@ -3262,10 +3347,10 @@
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -3277,13 +3362,13 @@
         <v>6</v>
       </c>
       <c r="F20">
-        <v>2395</v>
+        <v>2276</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
       </c>
       <c r="H20">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="I20" t="s">
         <v>8</v>
@@ -3300,8 +3385,8 @@
       <c r="M20" t="s">
         <v>12</v>
       </c>
-      <c r="N20" t="s">
-        <v>60</v>
+      <c r="N20" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="Q20" t="s">
         <v>10</v>
@@ -3310,7 +3395,7 @@
         <v>51</v>
       </c>
       <c r="S20" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="T20" t="s">
         <v>52</v>
@@ -3334,7 +3419,7 @@
         <v>51</v>
       </c>
       <c r="AA20">
-        <v>2395</v>
+        <v>2276</v>
       </c>
       <c r="AB20" t="s">
         <v>52</v>
@@ -3346,7 +3431,7 @@
         <v>51</v>
       </c>
       <c r="AE20">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="AF20" t="s">
         <v>52</v>
@@ -3381,8 +3466,8 @@
       <c r="AP20" t="s">
         <v>51</v>
       </c>
-      <c r="AQ20" t="s">
-        <v>60</v>
+      <c r="AQ20" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AR20" t="s">
         <v>0</v>
@@ -3390,10 +3475,10 @@
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -3405,13 +3490,13 @@
         <v>6</v>
       </c>
       <c r="F21">
-        <v>2395</v>
+        <v>2276</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
       </c>
       <c r="H21">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="I21" t="s">
         <v>8</v>
@@ -3428,8 +3513,8 @@
       <c r="M21" t="s">
         <v>12</v>
       </c>
-      <c r="N21" t="s">
-        <v>61</v>
+      <c r="N21" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="Q21" t="s">
         <v>10</v>
@@ -3438,7 +3523,7 @@
         <v>51</v>
       </c>
       <c r="S21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="T21" t="s">
         <v>52</v>
@@ -3462,7 +3547,7 @@
         <v>51</v>
       </c>
       <c r="AA21">
-        <v>2395</v>
+        <v>2276</v>
       </c>
       <c r="AB21" t="s">
         <v>52</v>
@@ -3474,7 +3559,7 @@
         <v>51</v>
       </c>
       <c r="AE21">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="AF21" t="s">
         <v>52</v>
@@ -3509,8 +3594,8 @@
       <c r="AP21" t="s">
         <v>51</v>
       </c>
-      <c r="AQ21" t="s">
-        <v>61</v>
+      <c r="AQ21" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="AR21" t="s">
         <v>0</v>
@@ -3518,28 +3603,28 @@
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
       </c>
       <c r="F22">
-        <v>2982</v>
+        <v>2276</v>
       </c>
       <c r="G22" t="s">
         <v>7</v>
       </c>
       <c r="H22">
-        <v>995</v>
+        <v>446</v>
       </c>
       <c r="I22" t="s">
         <v>8</v>
@@ -3556,8 +3641,8 @@
       <c r="M22" t="s">
         <v>12</v>
       </c>
-      <c r="N22" t="s">
-        <v>126</v>
+      <c r="N22" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="Q22" t="s">
         <v>10</v>
@@ -3566,7 +3651,7 @@
         <v>51</v>
       </c>
       <c r="S22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="T22" t="s">
         <v>52</v>
@@ -3578,7 +3663,7 @@
         <v>51</v>
       </c>
       <c r="W22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X22" t="s">
         <v>52</v>
@@ -3590,7 +3675,7 @@
         <v>51</v>
       </c>
       <c r="AA22">
-        <v>2982</v>
+        <v>2276</v>
       </c>
       <c r="AB22" t="s">
         <v>52</v>
@@ -3602,7 +3687,7 @@
         <v>51</v>
       </c>
       <c r="AE22">
-        <v>995</v>
+        <v>446</v>
       </c>
       <c r="AF22" t="s">
         <v>52</v>
@@ -3637,8 +3722,8 @@
       <c r="AP22" t="s">
         <v>51</v>
       </c>
-      <c r="AQ22" t="s">
-        <v>126</v>
+      <c r="AQ22" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="AR22" t="s">
         <v>0</v>
@@ -3646,28 +3731,28 @@
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23">
-        <v>2382</v>
+        <v>2276</v>
       </c>
       <c r="G23" t="s">
         <v>7</v>
       </c>
       <c r="H23">
-        <v>1824</v>
+        <v>497</v>
       </c>
       <c r="I23" t="s">
         <v>8</v>
@@ -3684,8 +3769,8 @@
       <c r="M23" t="s">
         <v>12</v>
       </c>
-      <c r="N23" t="s">
-        <v>127</v>
+      <c r="N23" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="Q23" t="s">
         <v>10</v>
@@ -3694,7 +3779,7 @@
         <v>51</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s">
         <v>52</v>
@@ -3706,7 +3791,7 @@
         <v>51</v>
       </c>
       <c r="W23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X23" t="s">
         <v>52</v>
@@ -3718,7 +3803,7 @@
         <v>51</v>
       </c>
       <c r="AA23">
-        <v>2382</v>
+        <v>2276</v>
       </c>
       <c r="AB23" t="s">
         <v>52</v>
@@ -3730,7 +3815,7 @@
         <v>51</v>
       </c>
       <c r="AE23">
-        <v>1824</v>
+        <v>497</v>
       </c>
       <c r="AF23" t="s">
         <v>52</v>
@@ -3765,8 +3850,8 @@
       <c r="AP23" t="s">
         <v>51</v>
       </c>
-      <c r="AQ23" t="s">
-        <v>127</v>
+      <c r="AQ23" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="AR23" t="s">
         <v>0</v>
@@ -3774,7 +3859,7 @@
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -3789,13 +3874,13 @@
         <v>6</v>
       </c>
       <c r="F24">
-        <v>2982</v>
+        <v>2080</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
       </c>
       <c r="H24">
-        <v>943</v>
+        <v>1917</v>
       </c>
       <c r="I24" t="s">
         <v>8</v>
@@ -3812,8 +3897,8 @@
       <c r="M24" t="s">
         <v>12</v>
       </c>
-      <c r="N24" t="s">
-        <v>62</v>
+      <c r="N24" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="Q24" t="s">
         <v>10</v>
@@ -3846,7 +3931,7 @@
         <v>51</v>
       </c>
       <c r="AA24">
-        <v>2982</v>
+        <v>2080</v>
       </c>
       <c r="AB24" t="s">
         <v>52</v>
@@ -3858,7 +3943,7 @@
         <v>51</v>
       </c>
       <c r="AE24">
-        <v>943</v>
+        <v>1917</v>
       </c>
       <c r="AF24" t="s">
         <v>52</v>
@@ -3893,8 +3978,8 @@
       <c r="AP24" t="s">
         <v>51</v>
       </c>
-      <c r="AQ24" t="s">
-        <v>62</v>
+      <c r="AQ24" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="AR24" t="s">
         <v>0</v>
@@ -3902,7 +3987,7 @@
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -3917,13 +4002,13 @@
         <v>6</v>
       </c>
       <c r="F25">
-        <v>2982</v>
+        <v>2080</v>
       </c>
       <c r="G25" t="s">
         <v>7</v>
       </c>
       <c r="H25">
-        <v>893</v>
+        <v>1867</v>
       </c>
       <c r="I25" t="s">
         <v>8</v>
@@ -3940,8 +4025,8 @@
       <c r="M25" t="s">
         <v>12</v>
       </c>
-      <c r="N25" t="s">
-        <v>63</v>
+      <c r="N25" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="Q25" t="s">
         <v>10</v>
@@ -3974,7 +4059,7 @@
         <v>51</v>
       </c>
       <c r="AA25">
-        <v>2982</v>
+        <v>2080</v>
       </c>
       <c r="AB25" t="s">
         <v>52</v>
@@ -3986,7 +4071,7 @@
         <v>51</v>
       </c>
       <c r="AE25">
-        <v>893</v>
+        <v>1867</v>
       </c>
       <c r="AF25" t="s">
         <v>52</v>
@@ -4021,51 +4106,435 @@
       <c r="AP25" t="s">
         <v>51</v>
       </c>
-      <c r="AQ25" t="s">
-        <v>63</v>
+      <c r="AQ25" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="AR25" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>2080</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>1969</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>770</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26">
+        <v>54</v>
+      </c>
+      <c r="M26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" t="s">
+        <v>51</v>
+      </c>
+      <c r="S26" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" t="s">
+        <v>52</v>
+      </c>
+      <c r="U26" t="s">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
+        <v>51</v>
+      </c>
+      <c r="W26" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA26">
+        <v>2080</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE26">
+        <v>1969</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI26">
+        <v>770</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM26">
+        <v>54</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ26" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>3178</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>1164</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>660</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <v>54</v>
+      </c>
+      <c r="M27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>10</v>
+      </c>
+      <c r="R27" t="s">
+        <v>51</v>
+      </c>
+      <c r="S27" t="s">
+        <v>49</v>
+      </c>
+      <c r="T27" t="s">
+        <v>52</v>
+      </c>
+      <c r="U27" t="s">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
+        <v>51</v>
+      </c>
+      <c r="W27" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA27">
+        <v>3178</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE27">
+        <v>1164</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI27">
+        <v>660</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM27">
+        <v>54</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>3178</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>1115</v>
+      </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>660</v>
+      </c>
+      <c r="K28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28">
+        <v>54</v>
+      </c>
+      <c r="M28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>10</v>
+      </c>
+      <c r="R28" t="s">
+        <v>51</v>
+      </c>
+      <c r="S28" t="s">
+        <v>50</v>
+      </c>
+      <c r="T28" t="s">
+        <v>52</v>
+      </c>
+      <c r="U28" t="s">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
+        <v>51</v>
+      </c>
+      <c r="W28" t="s">
+        <v>5</v>
+      </c>
+      <c r="X28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA28">
+        <v>3178</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE28">
+        <v>1115</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI28">
+        <v>660</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM28">
+        <v>54</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ28" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1272</v>
+        <v>2035</v>
       </c>
       <c r="B30">
-        <v>1056</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1272</v>
+        <v>2035</v>
       </c>
       <c r="B31">
-        <v>1107</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1272</v>
+        <v>2102</v>
       </c>
       <c r="B32">
-        <v>1157</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1595</v>
+        <v>3178</v>
       </c>
       <c r="B33">
-        <v>1450</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1595</v>
+        <v>3178</v>
       </c>
       <c r="B34">
-        <v>1399</v>
+        <v>1425</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -4073,10 +4542,10 @@
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1595</v>
+        <v>3178</v>
       </c>
       <c r="B35">
-        <v>1347</v>
+        <v>1476</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -4084,10 +4553,10 @@
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>16</v>
+        <v>3178</v>
       </c>
       <c r="B36">
-        <v>1112</v>
+        <v>1216</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -4095,10 +4564,10 @@
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>16</v>
+        <v>3069</v>
       </c>
       <c r="B37">
-        <v>1164</v>
+        <v>593</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -4106,10 +4575,10 @@
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>16</v>
+        <v>3069</v>
       </c>
       <c r="B38">
-        <v>1214</v>
+        <v>648</v>
       </c>
       <c r="C38">
         <v>9</v>
@@ -4117,21 +4586,21 @@
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>16</v>
+        <v>3069</v>
       </c>
       <c r="B39">
-        <v>1730</v>
+        <v>700</v>
       </c>
       <c r="C39">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>16</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1679</v>
+      <c r="A40">
+        <v>3069</v>
+      </c>
+      <c r="B40">
+        <v>753</v>
       </c>
       <c r="C40">
         <v>11</v>
@@ -4139,18 +4608,22 @@
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>16</v>
+        <v>3069</v>
       </c>
       <c r="B41" s="1">
-        <v>1629</v>
+        <v>804</v>
       </c>
       <c r="C41">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="A42" s="1">
+        <v>1859</v>
+      </c>
+      <c r="B42" s="1">
+        <v>939</v>
+      </c>
       <c r="C42">
         <v>13</v>
       </c>
@@ -4233,15 +4706,19 @@
         <v>51</v>
       </c>
       <c r="AQ42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AR42" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="1">
+        <v>1859</v>
+      </c>
+      <c r="B43" s="1">
+        <v>992</v>
+      </c>
       <c r="C43">
         <v>14</v>
       </c>
@@ -4324,15 +4801,19 @@
         <v>51</v>
       </c>
       <c r="AQ43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AR43" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="1">
+        <v>1859</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1045</v>
+      </c>
       <c r="C44">
         <v>15</v>
       </c>
@@ -4421,25 +4902,41 @@
         <v>51</v>
       </c>
       <c r="AQ44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AR44" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="1">
+        <v>1859</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1098</v>
+      </c>
       <c r="C45">
         <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1859</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1150</v>
+      </c>
       <c r="C46">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2276</v>
+      </c>
+      <c r="B47">
+        <v>288</v>
+      </c>
       <c r="C47">
         <v>18</v>
       </c>
@@ -4522,13 +5019,19 @@
         <v>51</v>
       </c>
       <c r="AQ47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AR47" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2276</v>
+      </c>
+      <c r="B48">
+        <v>341</v>
+      </c>
       <c r="C48">
         <v>19</v>
       </c>
@@ -4539,7 +5042,7 @@
         <v>51</v>
       </c>
       <c r="S48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T48" t="s">
         <v>52</v>
@@ -4611,13 +5114,19 @@
         <v>51</v>
       </c>
       <c r="AQ48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AR48" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2276</v>
+      </c>
+      <c r="B49">
+        <v>394</v>
+      </c>
       <c r="C49">
         <v>20</v>
       </c>
@@ -4700,13 +5209,19 @@
         <v>51</v>
       </c>
       <c r="AQ49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR49" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2276</v>
+      </c>
+      <c r="B50">
+        <v>446</v>
+      </c>
       <c r="C50">
         <v>21</v>
       </c>
@@ -4789,13 +5304,19 @@
         <v>51</v>
       </c>
       <c r="AQ50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AR50" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2276</v>
+      </c>
+      <c r="B51">
+        <v>497</v>
+      </c>
       <c r="C51">
         <v>22</v>
       </c>
@@ -4878,13 +5399,19 @@
         <v>51</v>
       </c>
       <c r="AQ51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AR51" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2080</v>
+      </c>
+      <c r="B52">
+        <v>1917</v>
+      </c>
       <c r="C52">
         <v>23</v>
       </c>
@@ -4967,13 +5494,19 @@
         <v>51</v>
       </c>
       <c r="AQ52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AR52" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2080</v>
+      </c>
+      <c r="B53">
+        <v>1867</v>
+      </c>
       <c r="C53">
         <v>24</v>
       </c>
@@ -5056,13 +5589,37 @@
         <v>51</v>
       </c>
       <c r="AQ53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2080</v>
+      </c>
+      <c r="B54">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3178</v>
+      </c>
+      <c r="B55">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3178</v>
+      </c>
+      <c r="B56">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="Q58" t="s">
         <v>10</v>
       </c>
@@ -5142,13 +5699,13 @@
         <v>51</v>
       </c>
       <c r="AQ58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AR58" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="Q59" t="s">
         <v>10</v>
       </c>
@@ -5228,13 +5785,13 @@
         <v>51</v>
       </c>
       <c r="AQ59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AR59" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="Q60" t="s">
         <v>10</v>
       </c>
@@ -5314,13 +5871,13 @@
         <v>51</v>
       </c>
       <c r="AQ60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AR60" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="Q61" t="s">
         <v>10</v>
       </c>
@@ -5400,13 +5957,13 @@
         <v>51</v>
       </c>
       <c r="AQ61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AR61" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="Q62" t="s">
         <v>10</v>
       </c>
@@ -5486,13 +6043,13 @@
         <v>51</v>
       </c>
       <c r="AQ62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR62" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="Q63" t="s">
         <v>10</v>
       </c>
@@ -5572,13 +6129,13 @@
         <v>51</v>
       </c>
       <c r="AQ63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AR63" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="Q64" t="s">
         <v>10</v>
       </c>
@@ -5658,7 +6215,7 @@
         <v>51</v>
       </c>
       <c r="AQ64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR64" t="s">
         <v>0</v>
@@ -5744,7 +6301,7 @@
         <v>51</v>
       </c>
       <c r="AQ65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AR65" t="s">
         <v>0</v>
@@ -5830,7 +6387,7 @@
         <v>51</v>
       </c>
       <c r="AQ66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AR66" t="s">
         <v>0</v>
@@ -5916,7 +6473,7 @@
         <v>51</v>
       </c>
       <c r="AQ67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AR67" t="s">
         <v>0</v>
@@ -6002,7 +6559,7 @@
         <v>51</v>
       </c>
       <c r="AQ68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AR68" t="s">
         <v>0</v>
@@ -6088,7 +6645,7 @@
         <v>51</v>
       </c>
       <c r="AQ69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR69" t="s">
         <v>0</v>
@@ -6174,7 +6731,7 @@
         <v>51</v>
       </c>
       <c r="AQ70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AR70" t="s">
         <v>0</v>
@@ -6260,7 +6817,7 @@
         <v>51</v>
       </c>
       <c r="AQ71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AR71" t="s">
         <v>0</v>
@@ -6346,7 +6903,7 @@
         <v>51</v>
       </c>
       <c r="AQ72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AR72" t="s">
         <v>0</v>
@@ -6432,7 +6989,7 @@
         <v>51</v>
       </c>
       <c r="AQ73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AR73" t="s">
         <v>0</v>
@@ -6518,7 +7075,7 @@
         <v>51</v>
       </c>
       <c r="AQ74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AR74" t="s">
         <v>0</v>
@@ -6604,7 +7161,7 @@
         <v>51</v>
       </c>
       <c r="AQ75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR75" t="s">
         <v>0</v>
@@ -6690,7 +7247,7 @@
         <v>51</v>
       </c>
       <c r="AQ76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AR76" t="s">
         <v>0</v>
@@ -6776,7 +7333,7 @@
         <v>51</v>
       </c>
       <c r="AQ77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AR77" t="s">
         <v>0</v>
@@ -6862,7 +7419,7 @@
         <v>51</v>
       </c>
       <c r="AQ78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AR78" t="s">
         <v>0</v>
@@ -6948,7 +7505,7 @@
         <v>51</v>
       </c>
       <c r="AQ79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR79" t="s">
         <v>0</v>
@@ -7034,7 +7591,7 @@
         <v>51</v>
       </c>
       <c r="AQ80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AR80" t="s">
         <v>0</v>
@@ -7120,7 +7677,7 @@
         <v>51</v>
       </c>
       <c r="AQ81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AR81" t="s">
         <v>0</v>
@@ -7206,7 +7763,7 @@
         <v>51</v>
       </c>
       <c r="AQ82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AR82" t="s">
         <v>0</v>
@@ -7292,7 +7849,7 @@
         <v>51</v>
       </c>
       <c r="AQ83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR83" t="s">
         <v>0</v>
@@ -7378,7 +7935,7 @@
         <v>51</v>
       </c>
       <c r="AQ84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AR84" t="s">
         <v>0</v>
@@ -7464,7 +8021,7 @@
         <v>51</v>
       </c>
       <c r="AQ85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AR85" t="s">
         <v>0</v>
@@ -7550,7 +8107,7 @@
         <v>51</v>
       </c>
       <c r="AQ86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AR86" t="s">
         <v>0</v>
@@ -7636,7 +8193,7 @@
         <v>51</v>
       </c>
       <c r="AQ87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR87" t="s">
         <v>0</v>
@@ -7722,7 +8279,7 @@
         <v>51</v>
       </c>
       <c r="AQ88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR88" t="s">
         <v>0</v>
@@ -7808,7 +8365,7 @@
         <v>51</v>
       </c>
       <c r="AQ89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR89" t="s">
         <v>0</v>
@@ -7894,7 +8451,7 @@
         <v>51</v>
       </c>
       <c r="AQ90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AR90" t="s">
         <v>0</v>
@@ -7980,7 +8537,7 @@
         <v>51</v>
       </c>
       <c r="AQ91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AR91" t="s">
         <v>0</v>
@@ -8066,7 +8623,7 @@
         <v>51</v>
       </c>
       <c r="AQ92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AR92" t="s">
         <v>0</v>
@@ -8080,7 +8637,7 @@
         <v>51</v>
       </c>
       <c r="S93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T93" t="s">
         <v>52</v>
@@ -8152,7 +8709,7 @@
         <v>51</v>
       </c>
       <c r="AQ93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AR93" t="s">
         <v>0</v>
@@ -8238,7 +8795,7 @@
         <v>51</v>
       </c>
       <c r="AQ104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AR104" t="s">
         <v>0</v>
@@ -8324,7 +8881,7 @@
         <v>51</v>
       </c>
       <c r="AQ105" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AR105" t="s">
         <v>0</v>
@@ -8410,7 +8967,7 @@
         <v>51</v>
       </c>
       <c r="AQ106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AR106" t="s">
         <v>0</v>
@@ -8496,7 +9053,7 @@
         <v>51</v>
       </c>
       <c r="AQ107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AR107" t="s">
         <v>0</v>
@@ -8582,7 +9139,7 @@
         <v>51</v>
       </c>
       <c r="AQ108" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AR108" t="s">
         <v>0</v>
@@ -8668,7 +9225,7 @@
         <v>51</v>
       </c>
       <c r="AQ109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR109" t="s">
         <v>0</v>
@@ -8754,7 +9311,7 @@
         <v>51</v>
       </c>
       <c r="AQ110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AR110" t="s">
         <v>0</v>
@@ -8840,7 +9397,7 @@
         <v>51</v>
       </c>
       <c r="AQ111" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AR111" t="s">
         <v>0</v>
@@ -8926,7 +9483,7 @@
         <v>51</v>
       </c>
       <c r="AQ112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AR112" t="s">
         <v>0</v>
@@ -8942,7 +9499,7 @@
   <dimension ref="A2:AS102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8984,7 +9541,7 @@
   <sheetData>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -8996,28 +9553,28 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>1178</v>
+        <v>1299</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I2">
-        <v>1192</v>
+        <v>770</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
       </c>
       <c r="K2">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="R2" t="s">
         <v>10</v>
@@ -9026,79 +9583,79 @@
         <v>51</v>
       </c>
       <c r="T2" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2">
+        <v>2624</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2">
+        <v>1299</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2">
+        <v>770</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN2">
+        <v>108</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="s">
         <v>132</v>
-      </c>
-      <c r="U2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2">
-        <v>2625</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2">
-        <v>1178</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ2">
-        <v>1192</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN2">
-        <v>54</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>150</v>
       </c>
       <c r="AS2" t="s">
         <v>0</v>
@@ -9106,7 +9663,7 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -9118,28 +9675,28 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>1083</v>
+        <v>1169</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I3">
-        <v>1192</v>
+        <v>770</v>
       </c>
       <c r="J3" t="s">
         <v>9</v>
       </c>
       <c r="K3">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="L3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="R3" t="s">
         <v>10</v>
@@ -9148,7 +9705,7 @@
         <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="U3" t="s">
         <v>52</v>
@@ -9172,7 +9729,7 @@
         <v>51</v>
       </c>
       <c r="AB3">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="AC3" t="s">
         <v>52</v>
@@ -9184,7 +9741,7 @@
         <v>51</v>
       </c>
       <c r="AF3">
-        <v>1083</v>
+        <v>1169</v>
       </c>
       <c r="AG3" t="s">
         <v>52</v>
@@ -9196,7 +9753,7 @@
         <v>51</v>
       </c>
       <c r="AJ3">
-        <v>1192</v>
+        <v>770</v>
       </c>
       <c r="AK3" t="s">
         <v>52</v>
@@ -9208,7 +9765,7 @@
         <v>51</v>
       </c>
       <c r="AN3">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="AO3" t="s">
         <v>52</v>
@@ -9220,7 +9777,7 @@
         <v>51</v>
       </c>
       <c r="AR3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="AS3" t="s">
         <v>0</v>
@@ -9228,7 +9785,7 @@
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -9240,28 +9797,28 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
       <c r="G4">
-        <v>988</v>
+        <v>1041</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I4">
-        <v>1192</v>
+        <v>770</v>
       </c>
       <c r="J4" t="s">
         <v>9</v>
       </c>
       <c r="K4">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="L4" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="R4" t="s">
         <v>10</v>
@@ -9270,7 +9827,7 @@
         <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="U4" t="s">
         <v>52</v>
@@ -9294,7 +9851,7 @@
         <v>51</v>
       </c>
       <c r="AB4">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="AC4" t="s">
         <v>52</v>
@@ -9306,7 +9863,7 @@
         <v>51</v>
       </c>
       <c r="AF4">
-        <v>988</v>
+        <v>1041</v>
       </c>
       <c r="AG4" t="s">
         <v>52</v>
@@ -9318,7 +9875,7 @@
         <v>51</v>
       </c>
       <c r="AJ4">
-        <v>1192</v>
+        <v>770</v>
       </c>
       <c r="AK4" t="s">
         <v>52</v>
@@ -9330,7 +9887,7 @@
         <v>51</v>
       </c>
       <c r="AN4">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="AO4" t="s">
         <v>52</v>
@@ -9342,7 +9899,7 @@
         <v>51</v>
       </c>
       <c r="AR4" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="AS4" t="s">
         <v>0</v>
@@ -9350,7 +9907,7 @@
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -9361,29 +9918,29 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>2625</v>
+      <c r="E5" s="1">
+        <v>2624</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>894</v>
+      <c r="G5" s="1">
+        <v>913</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I5">
-        <v>1192</v>
+        <v>770</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>
       </c>
       <c r="K5">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="R5" t="s">
         <v>10</v>
@@ -9392,7 +9949,7 @@
         <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="U5" t="s">
         <v>52</v>
@@ -9415,8 +9972,8 @@
       <c r="AA5" t="s">
         <v>51</v>
       </c>
-      <c r="AB5">
-        <v>2625</v>
+      <c r="AB5" s="1">
+        <v>2624</v>
       </c>
       <c r="AC5" t="s">
         <v>52</v>
@@ -9427,8 +9984,8 @@
       <c r="AE5" t="s">
         <v>51</v>
       </c>
-      <c r="AF5">
-        <v>894</v>
+      <c r="AF5" s="1">
+        <v>913</v>
       </c>
       <c r="AG5" t="s">
         <v>52</v>
@@ -9440,7 +9997,7 @@
         <v>51</v>
       </c>
       <c r="AJ5">
-        <v>1192</v>
+        <v>770</v>
       </c>
       <c r="AK5" t="s">
         <v>52</v>
@@ -9452,7 +10009,7 @@
         <v>51</v>
       </c>
       <c r="AN5">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="AO5" t="s">
         <v>52</v>
@@ -9464,7 +10021,7 @@
         <v>51</v>
       </c>
       <c r="AR5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AS5" t="s">
         <v>0</v>
@@ -9472,7 +10029,7 @@
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -9483,29 +10040,29 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>74</v>
+      <c r="E6" s="1">
+        <v>784</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>510</v>
+      <c r="G6" s="1">
+        <v>632</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I6">
-        <v>1392</v>
+        <v>770</v>
       </c>
       <c r="J6" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K6">
         <v>108</v>
       </c>
       <c r="L6" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="R6" t="s">
         <v>10</v>
@@ -9514,7 +10071,7 @@
         <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="U6" t="s">
         <v>52</v>
@@ -9537,8 +10094,8 @@
       <c r="AA6" t="s">
         <v>51</v>
       </c>
-      <c r="AB6">
-        <v>74</v>
+      <c r="AB6" s="1">
+        <v>784</v>
       </c>
       <c r="AC6" t="s">
         <v>52</v>
@@ -9549,8 +10106,8 @@
       <c r="AE6" t="s">
         <v>51</v>
       </c>
-      <c r="AF6">
-        <v>510</v>
+      <c r="AF6" s="1">
+        <v>632</v>
       </c>
       <c r="AG6" t="s">
         <v>52</v>
@@ -9562,7 +10119,7 @@
         <v>51</v>
       </c>
       <c r="AJ6">
-        <v>1392</v>
+        <v>770</v>
       </c>
       <c r="AK6" t="s">
         <v>52</v>
@@ -9586,7 +10143,7 @@
         <v>51</v>
       </c>
       <c r="AR6" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="AS6" t="s">
         <v>0</v>
@@ -9594,7 +10151,7 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -9605,29 +10162,29 @@
       <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>2368</v>
+      <c r="E7" s="1">
+        <v>2342</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>510</v>
+      <c r="G7" s="1">
+        <v>630</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I7">
-        <v>1442</v>
+        <v>770</v>
       </c>
       <c r="J7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K7">
         <v>108</v>
       </c>
       <c r="L7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="R7" t="s">
         <v>10</v>
@@ -9636,7 +10193,7 @@
         <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="U7" t="s">
         <v>52</v>
@@ -9659,8 +10216,8 @@
       <c r="AA7" t="s">
         <v>51</v>
       </c>
-      <c r="AB7">
-        <v>2368</v>
+      <c r="AB7" s="1">
+        <v>2342</v>
       </c>
       <c r="AC7" t="s">
         <v>52</v>
@@ -9671,8 +10228,8 @@
       <c r="AE7" t="s">
         <v>51</v>
       </c>
-      <c r="AF7">
-        <v>510</v>
+      <c r="AF7" s="1">
+        <v>630</v>
       </c>
       <c r="AG7" t="s">
         <v>52</v>
@@ -9684,7 +10241,7 @@
         <v>51</v>
       </c>
       <c r="AJ7">
-        <v>1442</v>
+        <v>770</v>
       </c>
       <c r="AK7" t="s">
         <v>52</v>
@@ -9708,7 +10265,7 @@
         <v>51</v>
       </c>
       <c r="AR7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="AS7" t="s">
         <v>0</v>
@@ -9716,7 +10273,7 @@
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -9727,29 +10284,29 @@
       <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>74</v>
+      <c r="E8" s="1">
+        <v>1051</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
       </c>
-      <c r="G8">
-        <v>406</v>
+      <c r="G8" s="1">
+        <v>494</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I8">
-        <v>1392</v>
+        <v>770</v>
       </c>
       <c r="J8" t="s">
         <v>9</v>
       </c>
       <c r="K8">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="R8" t="s">
         <v>10</v>
@@ -9758,7 +10315,7 @@
         <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="U8" t="s">
         <v>52</v>
@@ -9781,8 +10338,8 @@
       <c r="AA8" t="s">
         <v>51</v>
       </c>
-      <c r="AB8">
-        <v>74</v>
+      <c r="AB8" s="1">
+        <v>1051</v>
       </c>
       <c r="AC8" t="s">
         <v>52</v>
@@ -9793,8 +10350,8 @@
       <c r="AE8" t="s">
         <v>51</v>
       </c>
-      <c r="AF8">
-        <v>406</v>
+      <c r="AF8" s="1">
+        <v>494</v>
       </c>
       <c r="AG8" t="s">
         <v>52</v>
@@ -9806,7 +10363,7 @@
         <v>51</v>
       </c>
       <c r="AJ8">
-        <v>1392</v>
+        <v>770</v>
       </c>
       <c r="AK8" t="s">
         <v>52</v>
@@ -9818,7 +10375,7 @@
         <v>51</v>
       </c>
       <c r="AN8">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="AO8" t="s">
         <v>52</v>
@@ -9830,7 +10387,7 @@
         <v>51</v>
       </c>
       <c r="AR8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="AS8" t="s">
         <v>0</v>
@@ -9838,7 +10395,7 @@
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -9849,29 +10406,29 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>2368</v>
+      <c r="E9" s="1">
+        <v>2051</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>406</v>
+      <c r="G9" s="1">
+        <v>492</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I9">
-        <v>1442</v>
+        <v>770</v>
       </c>
       <c r="J9" t="s">
         <v>9</v>
       </c>
       <c r="K9">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="R9" t="s">
         <v>10</v>
@@ -9880,7 +10437,7 @@
         <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="U9" t="s">
         <v>52</v>
@@ -9903,8 +10460,8 @@
       <c r="AA9" t="s">
         <v>51</v>
       </c>
-      <c r="AB9">
-        <v>2368</v>
+      <c r="AB9" s="1">
+        <v>2051</v>
       </c>
       <c r="AC9" t="s">
         <v>52</v>
@@ -9915,8 +10472,8 @@
       <c r="AE9" t="s">
         <v>51</v>
       </c>
-      <c r="AF9">
-        <v>406</v>
+      <c r="AF9" s="1">
+        <v>492</v>
       </c>
       <c r="AG9" t="s">
         <v>52</v>
@@ -9928,7 +10485,7 @@
         <v>51</v>
       </c>
       <c r="AJ9">
-        <v>1442</v>
+        <v>770</v>
       </c>
       <c r="AK9" t="s">
         <v>52</v>
@@ -9940,7 +10497,7 @@
         <v>51</v>
       </c>
       <c r="AN9">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="AO9" t="s">
         <v>52</v>
@@ -9952,7 +10509,7 @@
         <v>51</v>
       </c>
       <c r="AR9" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="AS9" t="s">
         <v>0</v>
@@ -9960,7 +10517,7 @@
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -9971,29 +10528,29 @@
       <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>74</v>
+      <c r="E10" s="1">
+        <v>343</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="G10">
-        <v>706</v>
+      <c r="G10" s="1">
+        <v>806</v>
       </c>
       <c r="H10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>54</v>
+      </c>
+      <c r="L10" t="s">
         <v>149</v>
-      </c>
-      <c r="I10">
-        <v>1192</v>
-      </c>
-      <c r="J10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10">
-        <v>54</v>
-      </c>
-      <c r="L10" t="s">
-        <v>167</v>
       </c>
       <c r="R10" t="s">
         <v>10</v>
@@ -10002,7 +10559,7 @@
         <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="U10" t="s">
         <v>52</v>
@@ -10025,8 +10582,8 @@
       <c r="AA10" t="s">
         <v>51</v>
       </c>
-      <c r="AB10">
-        <v>74</v>
+      <c r="AB10" s="1">
+        <v>343</v>
       </c>
       <c r="AC10" t="s">
         <v>52</v>
@@ -10037,8 +10594,8 @@
       <c r="AE10" t="s">
         <v>51</v>
       </c>
-      <c r="AF10">
-        <v>706</v>
+      <c r="AF10" s="1">
+        <v>806</v>
       </c>
       <c r="AG10" t="s">
         <v>52</v>
@@ -10050,7 +10607,7 @@
         <v>51</v>
       </c>
       <c r="AJ10">
-        <v>1192</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="s">
         <v>52</v>
@@ -10074,7 +10631,7 @@
         <v>51</v>
       </c>
       <c r="AR10" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="AS10" t="s">
         <v>0</v>
@@ -10082,7 +10639,7 @@
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -10094,19 +10651,19 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>2625</v>
+        <v>2537</v>
       </c>
       <c r="F11" t="s">
         <v>4</v>
       </c>
       <c r="G11">
-        <v>706</v>
+        <v>820</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I11">
-        <v>1192</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="s">
         <v>9</v>
@@ -10115,7 +10672,7 @@
         <v>54</v>
       </c>
       <c r="L11" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="R11" t="s">
         <v>10</v>
@@ -10124,7 +10681,7 @@
         <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="U11" t="s">
         <v>52</v>
@@ -10148,7 +10705,7 @@
         <v>51</v>
       </c>
       <c r="AB11">
-        <v>2625</v>
+        <v>2537</v>
       </c>
       <c r="AC11" t="s">
         <v>52</v>
@@ -10160,7 +10717,7 @@
         <v>51</v>
       </c>
       <c r="AF11">
-        <v>706</v>
+        <v>820</v>
       </c>
       <c r="AG11" t="s">
         <v>52</v>
@@ -10172,7 +10729,7 @@
         <v>51</v>
       </c>
       <c r="AJ11">
-        <v>1192</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="s">
         <v>52</v>
@@ -10196,7 +10753,7 @@
         <v>51</v>
       </c>
       <c r="AR11" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="AS11" t="s">
         <v>0</v>
@@ -10204,7 +10761,7 @@
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -10215,29 +10772,29 @@
       <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1">
-        <v>134</v>
+      <c r="E12">
+        <v>208</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G12">
-        <v>1542</v>
+        <v>1517</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I12">
-        <v>1032</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K12">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="L12" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="R12" t="s">
         <v>10</v>
@@ -10246,7 +10803,7 @@
         <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="U12" t="s">
         <v>52</v>
@@ -10269,8 +10826,8 @@
       <c r="AA12" t="s">
         <v>51</v>
       </c>
-      <c r="AB12" s="1">
-        <v>134</v>
+      <c r="AB12">
+        <v>208</v>
       </c>
       <c r="AC12" t="s">
         <v>52</v>
@@ -10282,7 +10839,7 @@
         <v>51</v>
       </c>
       <c r="AF12">
-        <v>1542</v>
+        <v>1517</v>
       </c>
       <c r="AG12" t="s">
         <v>52</v>
@@ -10294,7 +10851,7 @@
         <v>51</v>
       </c>
       <c r="AJ12">
-        <v>1032</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="s">
         <v>52</v>
@@ -10306,7 +10863,7 @@
         <v>51</v>
       </c>
       <c r="AN12">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AO12" t="s">
         <v>52</v>
@@ -10318,7 +10875,7 @@
         <v>51</v>
       </c>
       <c r="AR12" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="AS12" t="s">
         <v>0</v>
@@ -10326,7 +10883,7 @@
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -10337,29 +10894,29 @@
       <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1">
-        <v>2765</v>
+      <c r="E13">
+        <v>2655</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G13">
-        <v>1542</v>
+        <v>1619</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I13">
-        <v>1052</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K13">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="L13" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="R13" t="s">
         <v>10</v>
@@ -10368,7 +10925,7 @@
         <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="U13" t="s">
         <v>52</v>
@@ -10391,8 +10948,8 @@
       <c r="AA13" t="s">
         <v>51</v>
       </c>
-      <c r="AB13" s="1">
-        <v>2765</v>
+      <c r="AB13">
+        <v>2655</v>
       </c>
       <c r="AC13" t="s">
         <v>52</v>
@@ -10404,7 +10961,7 @@
         <v>51</v>
       </c>
       <c r="AF13">
-        <v>1542</v>
+        <v>1619</v>
       </c>
       <c r="AG13" t="s">
         <v>52</v>
@@ -10416,7 +10973,7 @@
         <v>51</v>
       </c>
       <c r="AJ13">
-        <v>1052</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="s">
         <v>52</v>
@@ -10428,7 +10985,7 @@
         <v>51</v>
       </c>
       <c r="AN13">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AO13" t="s">
         <v>52</v>
@@ -10440,7 +10997,7 @@
         <v>51</v>
       </c>
       <c r="AR13" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="AS13" t="s">
         <v>0</v>
@@ -10448,7 +11005,7 @@
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -10459,29 +11016,29 @@
       <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1">
-        <v>134</v>
+      <c r="E14">
+        <v>231</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G14">
-        <v>864</v>
+        <v>947</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I14">
-        <v>1032</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K14">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="L14" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="R14" t="s">
         <v>10</v>
@@ -10490,7 +11047,7 @@
         <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="U14" t="s">
         <v>52</v>
@@ -10513,8 +11070,8 @@
       <c r="AA14" t="s">
         <v>51</v>
       </c>
-      <c r="AB14" s="1">
-        <v>134</v>
+      <c r="AB14">
+        <v>231</v>
       </c>
       <c r="AC14" t="s">
         <v>52</v>
@@ -10526,7 +11083,7 @@
         <v>51</v>
       </c>
       <c r="AF14">
-        <v>864</v>
+        <v>947</v>
       </c>
       <c r="AG14" t="s">
         <v>52</v>
@@ -10538,7 +11095,7 @@
         <v>51</v>
       </c>
       <c r="AJ14">
-        <v>1032</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="s">
         <v>52</v>
@@ -10550,7 +11107,7 @@
         <v>51</v>
       </c>
       <c r="AN14">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AO14" t="s">
         <v>52</v>
@@ -10562,7 +11119,7 @@
         <v>51</v>
       </c>
       <c r="AR14" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="AS14" t="s">
         <v>0</v>
@@ -10570,7 +11127,7 @@
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -10581,29 +11138,29 @@
       <c r="D15" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1">
-        <v>134</v>
+      <c r="E15">
+        <v>231</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G15">
-        <v>974</v>
+        <v>997</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I15">
-        <v>1032</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K15">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="L15" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="R15" t="s">
         <v>10</v>
@@ -10612,7 +11169,7 @@
         <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="U15" t="s">
         <v>52</v>
@@ -10635,8 +11192,8 @@
       <c r="AA15" t="s">
         <v>51</v>
       </c>
-      <c r="AB15" s="1">
-        <v>134</v>
+      <c r="AB15">
+        <v>231</v>
       </c>
       <c r="AC15" t="s">
         <v>52</v>
@@ -10648,7 +11205,7 @@
         <v>51</v>
       </c>
       <c r="AF15">
-        <v>974</v>
+        <v>997</v>
       </c>
       <c r="AG15" t="s">
         <v>52</v>
@@ -10660,7 +11217,7 @@
         <v>51</v>
       </c>
       <c r="AJ15">
-        <v>1032</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="s">
         <v>52</v>
@@ -10672,7 +11229,7 @@
         <v>51</v>
       </c>
       <c r="AN15">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AO15" t="s">
         <v>52</v>
@@ -10684,7 +11241,7 @@
         <v>51</v>
       </c>
       <c r="AR15" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AS15" t="s">
         <v>0</v>
@@ -10692,7 +11249,7 @@
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -10703,29 +11260,29 @@
       <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1">
-        <v>134</v>
+      <c r="E16">
+        <v>231</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G16">
-        <v>1084</v>
+        <v>1051</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I16">
-        <v>1032</v>
+        <v>1000</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K16">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="L16" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="R16" t="s">
         <v>10</v>
@@ -10734,7 +11291,7 @@
         <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="U16" t="s">
         <v>52</v>
@@ -10757,8 +11314,8 @@
       <c r="AA16" t="s">
         <v>51</v>
       </c>
-      <c r="AB16" s="1">
-        <v>134</v>
+      <c r="AB16">
+        <v>231</v>
       </c>
       <c r="AC16" t="s">
         <v>52</v>
@@ -10770,7 +11327,7 @@
         <v>51</v>
       </c>
       <c r="AF16">
-        <v>1084</v>
+        <v>1051</v>
       </c>
       <c r="AG16" t="s">
         <v>52</v>
@@ -10782,7 +11339,7 @@
         <v>51</v>
       </c>
       <c r="AJ16">
-        <v>1032</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="s">
         <v>52</v>
@@ -10794,7 +11351,7 @@
         <v>51</v>
       </c>
       <c r="AN16">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AO16" t="s">
         <v>52</v>
@@ -10806,7 +11363,7 @@
         <v>51</v>
       </c>
       <c r="AR16" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="AS16" t="s">
         <v>0</v>
@@ -10814,7 +11371,7 @@
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -10825,29 +11382,29 @@
       <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="1">
-        <v>134</v>
+      <c r="E17">
+        <v>231</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G17">
-        <v>1194</v>
+        <v>1103</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I17">
-        <v>1032</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K17">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="R17" t="s">
         <v>10</v>
@@ -10856,7 +11413,7 @@
         <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="U17" t="s">
         <v>52</v>
@@ -10879,8 +11436,8 @@
       <c r="AA17" t="s">
         <v>51</v>
       </c>
-      <c r="AB17" s="1">
-        <v>134</v>
+      <c r="AB17">
+        <v>231</v>
       </c>
       <c r="AC17" t="s">
         <v>52</v>
@@ -10892,7 +11449,7 @@
         <v>51</v>
       </c>
       <c r="AF17">
-        <v>1194</v>
+        <v>1103</v>
       </c>
       <c r="AG17" t="s">
         <v>52</v>
@@ -10904,7 +11461,7 @@
         <v>51</v>
       </c>
       <c r="AJ17">
-        <v>1032</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="s">
         <v>52</v>
@@ -10916,7 +11473,7 @@
         <v>51</v>
       </c>
       <c r="AN17">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AO17" t="s">
         <v>52</v>
@@ -10928,7 +11485,7 @@
         <v>51</v>
       </c>
       <c r="AR17" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="AS17" t="s">
         <v>0</v>
@@ -10936,7 +11493,7 @@
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -10948,28 +11505,28 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>2765</v>
+        <v>2655</v>
       </c>
       <c r="F18" t="s">
         <v>4</v>
       </c>
       <c r="G18">
-        <v>1322</v>
+        <v>1517</v>
       </c>
       <c r="H18" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I18">
-        <v>1052</v>
+        <v>1000</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K18">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="R18" t="s">
         <v>10</v>
@@ -10978,7 +11535,7 @@
         <v>51</v>
       </c>
       <c r="T18" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="U18" t="s">
         <v>52</v>
@@ -11002,7 +11559,7 @@
         <v>51</v>
       </c>
       <c r="AB18">
-        <v>2765</v>
+        <v>2655</v>
       </c>
       <c r="AC18" t="s">
         <v>52</v>
@@ -11014,7 +11571,7 @@
         <v>51</v>
       </c>
       <c r="AF18">
-        <v>1322</v>
+        <v>1517</v>
       </c>
       <c r="AG18" t="s">
         <v>52</v>
@@ -11026,7 +11583,7 @@
         <v>51</v>
       </c>
       <c r="AJ18">
-        <v>1052</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="s">
         <v>52</v>
@@ -11038,7 +11595,7 @@
         <v>51</v>
       </c>
       <c r="AN18">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AO18" t="s">
         <v>52</v>
@@ -11050,7 +11607,7 @@
         <v>51</v>
       </c>
       <c r="AR18" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="AS18" t="s">
         <v>0</v>
@@ -11058,7 +11615,7 @@
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -11070,28 +11627,28 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>2765</v>
+        <v>2655</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
       </c>
       <c r="G19">
-        <v>1432</v>
+        <v>1569</v>
       </c>
       <c r="H19" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I19">
-        <v>1052</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K19">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="R19" t="s">
         <v>10</v>
@@ -11100,7 +11657,7 @@
         <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="U19" t="s">
         <v>52</v>
@@ -11124,7 +11681,7 @@
         <v>51</v>
       </c>
       <c r="AB19">
-        <v>2765</v>
+        <v>2655</v>
       </c>
       <c r="AC19" t="s">
         <v>52</v>
@@ -11136,7 +11693,7 @@
         <v>51</v>
       </c>
       <c r="AF19">
-        <v>1432</v>
+        <v>1569</v>
       </c>
       <c r="AG19" t="s">
         <v>52</v>
@@ -11148,7 +11705,7 @@
         <v>51</v>
       </c>
       <c r="AJ19">
-        <v>1052</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="s">
         <v>52</v>
@@ -11160,7 +11717,7 @@
         <v>51</v>
       </c>
       <c r="AN19">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AO19" t="s">
         <v>52</v>
@@ -11172,7 +11729,7 @@
         <v>51</v>
       </c>
       <c r="AR19" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="AS19" t="s">
         <v>0</v>
@@ -11180,7 +11737,7 @@
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -11192,28 +11749,28 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
       </c>
       <c r="G20">
-        <v>1322</v>
+        <v>1415</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I20">
-        <v>1032</v>
+        <v>1000</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K20">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="R20" t="s">
         <v>10</v>
@@ -11222,7 +11779,7 @@
         <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="U20" t="s">
         <v>52</v>
@@ -11246,7 +11803,7 @@
         <v>51</v>
       </c>
       <c r="AB20">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="AC20" t="s">
         <v>52</v>
@@ -11258,7 +11815,7 @@
         <v>51</v>
       </c>
       <c r="AF20">
-        <v>1322</v>
+        <v>1415</v>
       </c>
       <c r="AG20" t="s">
         <v>52</v>
@@ -11270,7 +11827,7 @@
         <v>51</v>
       </c>
       <c r="AJ20">
-        <v>1032</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="s">
         <v>52</v>
@@ -11282,7 +11839,7 @@
         <v>51</v>
       </c>
       <c r="AN20">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AO20" t="s">
         <v>52</v>
@@ -11294,7 +11851,7 @@
         <v>51</v>
       </c>
       <c r="AR20" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="AS20" t="s">
         <v>0</v>
@@ -11302,7 +11859,7 @@
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -11314,28 +11871,28 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="F21" t="s">
         <v>4</v>
       </c>
       <c r="G21">
-        <v>1432</v>
+        <v>1465</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I21">
-        <v>1032</v>
+        <v>1000</v>
       </c>
       <c r="J21" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K21">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="R21" t="s">
         <v>10</v>
@@ -11344,7 +11901,7 @@
         <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="U21" t="s">
         <v>52</v>
@@ -11368,7 +11925,7 @@
         <v>51</v>
       </c>
       <c r="AB21">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="AC21" t="s">
         <v>52</v>
@@ -11380,7 +11937,7 @@
         <v>51</v>
       </c>
       <c r="AF21">
-        <v>1432</v>
+        <v>1465</v>
       </c>
       <c r="AG21" t="s">
         <v>52</v>
@@ -11392,7 +11949,7 @@
         <v>51</v>
       </c>
       <c r="AJ21">
-        <v>1032</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="s">
         <v>52</v>
@@ -11404,7 +11961,7 @@
         <v>51</v>
       </c>
       <c r="AN21">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AO21" t="s">
         <v>52</v>
@@ -11416,13 +11973,27 @@
         <v>51</v>
       </c>
       <c r="AR21" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="AS21" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2624</v>
+      </c>
+      <c r="B27">
+        <v>1299</v>
+      </c>
+    </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2624</v>
+      </c>
+      <c r="B28">
+        <v>1169</v>
+      </c>
       <c r="R28" t="s">
         <v>10</v>
       </c>
@@ -11430,7 +12001,7 @@
         <v>51</v>
       </c>
       <c r="T28" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="U28" t="s">
         <v>52</v>
@@ -11502,13 +12073,19 @@
         <v>51</v>
       </c>
       <c r="AR28" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="AS28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2624</v>
+      </c>
+      <c r="B29">
+        <v>1041</v>
+      </c>
       <c r="R29" t="s">
         <v>10</v>
       </c>
@@ -11516,7 +12093,7 @@
         <v>51</v>
       </c>
       <c r="T29" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="U29" t="s">
         <v>52</v>
@@ -11588,15 +12165,19 @@
         <v>51</v>
       </c>
       <c r="AR29" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="AS29" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="1">
+        <v>2624</v>
+      </c>
+      <c r="B30" s="1">
+        <v>913</v>
+      </c>
       <c r="R30" t="s">
         <v>10</v>
       </c>
@@ -11604,7 +12185,7 @@
         <v>51</v>
       </c>
       <c r="T30" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="U30" t="s">
         <v>52</v>
@@ -11676,15 +12257,19 @@
         <v>51</v>
       </c>
       <c r="AR30" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="AS30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="1">
+        <v>784</v>
+      </c>
+      <c r="B31" s="1">
+        <v>632</v>
+      </c>
       <c r="R31" t="s">
         <v>10</v>
       </c>
@@ -11692,7 +12277,7 @@
         <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="U31" t="s">
         <v>52</v>
@@ -11764,15 +12349,19 @@
         <v>51</v>
       </c>
       <c r="AR31" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AS31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="1">
+        <v>2342</v>
+      </c>
+      <c r="B32" s="1">
+        <v>630</v>
+      </c>
       <c r="R32" t="s">
         <v>10</v>
       </c>
@@ -11780,7 +12369,7 @@
         <v>51</v>
       </c>
       <c r="T32" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="U32" t="s">
         <v>52</v>
@@ -11852,15 +12441,19 @@
         <v>51</v>
       </c>
       <c r="AR32" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="AS32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="1">
+        <v>1051</v>
+      </c>
+      <c r="B33" s="1">
+        <v>494</v>
+      </c>
       <c r="R33" t="s">
         <v>10</v>
       </c>
@@ -11868,7 +12461,7 @@
         <v>51</v>
       </c>
       <c r="T33" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="U33" t="s">
         <v>52</v>
@@ -11940,20 +12533,27 @@
         <v>51</v>
       </c>
       <c r="AR33" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="AS33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="1">
+        <v>2051</v>
+      </c>
+      <c r="B34" s="1">
+        <v>492</v>
+      </c>
       <c r="J34" t="s">
         <v>9</v>
       </c>
       <c r="K34">
         <v>54</v>
+      </c>
+      <c r="L34" t="s">
+        <v>214</v>
       </c>
       <c r="R34" t="s">
         <v>10</v>
@@ -11962,7 +12562,7 @@
         <v>51</v>
       </c>
       <c r="T34" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="U34" t="s">
         <v>52</v>
@@ -12034,15 +12634,28 @@
         <v>51</v>
       </c>
       <c r="AR34" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="AS34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="1">
+        <v>343</v>
+      </c>
+      <c r="B35" s="1">
+        <v>806</v>
+      </c>
+      <c r="J35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35">
+        <v>108</v>
+      </c>
+      <c r="L35" t="s">
+        <v>215</v>
+      </c>
       <c r="R35" t="s">
         <v>10</v>
       </c>
@@ -12050,7 +12663,7 @@
         <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="U35" t="s">
         <v>52</v>
@@ -12122,13 +12735,28 @@
         <v>51</v>
       </c>
       <c r="AR35" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="AS35" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2537</v>
+      </c>
+      <c r="B36">
+        <v>820</v>
+      </c>
+      <c r="J36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>162</v>
+      </c>
+      <c r="L36" t="s">
+        <v>216</v>
+      </c>
       <c r="R36" t="s">
         <v>10</v>
       </c>
@@ -12136,7 +12764,7 @@
         <v>51</v>
       </c>
       <c r="T36" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="U36" t="s">
         <v>52</v>
@@ -12208,13 +12836,28 @@
         <v>51</v>
       </c>
       <c r="AR36" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="AS36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>208</v>
+      </c>
+      <c r="B37">
+        <v>1517</v>
+      </c>
+      <c r="J37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37">
+        <v>216</v>
+      </c>
+      <c r="L37" t="s">
+        <v>217</v>
+      </c>
       <c r="R37" t="s">
         <v>10</v>
       </c>
@@ -12222,7 +12865,7 @@
         <v>51</v>
       </c>
       <c r="T37" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="U37" t="s">
         <v>52</v>
@@ -12294,13 +12937,19 @@
         <v>51</v>
       </c>
       <c r="AR37" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="AS37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2655</v>
+      </c>
+      <c r="B38">
+        <v>1619</v>
+      </c>
       <c r="R38" t="s">
         <v>10</v>
       </c>
@@ -12308,7 +12957,7 @@
         <v>51</v>
       </c>
       <c r="T38" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="U38" t="s">
         <v>52</v>
@@ -12380,13 +13029,19 @@
         <v>51</v>
       </c>
       <c r="AR38" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="AS38" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>231</v>
+      </c>
+      <c r="B39">
+        <v>947</v>
+      </c>
       <c r="R39" t="s">
         <v>10</v>
       </c>
@@ -12394,7 +13049,7 @@
         <v>51</v>
       </c>
       <c r="T39" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="U39" t="s">
         <v>52</v>
@@ -12466,13 +13121,19 @@
         <v>51</v>
       </c>
       <c r="AR39" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="AS39" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>231</v>
+      </c>
+      <c r="B40">
+        <v>997</v>
+      </c>
       <c r="R40" t="s">
         <v>10</v>
       </c>
@@ -12480,7 +13141,7 @@
         <v>51</v>
       </c>
       <c r="T40" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="U40" t="s">
         <v>52</v>
@@ -12552,13 +13213,19 @@
         <v>51</v>
       </c>
       <c r="AR40" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="AS40" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>231</v>
+      </c>
+      <c r="B41">
+        <v>1051</v>
+      </c>
       <c r="R41" t="s">
         <v>10</v>
       </c>
@@ -12566,7 +13233,7 @@
         <v>51</v>
       </c>
       <c r="T41" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="U41" t="s">
         <v>52</v>
@@ -12638,13 +13305,19 @@
         <v>51</v>
       </c>
       <c r="AR41" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AS41" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>231</v>
+      </c>
+      <c r="B42">
+        <v>1103</v>
+      </c>
       <c r="R42" t="s">
         <v>10</v>
       </c>
@@ -12652,7 +13325,7 @@
         <v>51</v>
       </c>
       <c r="T42" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="U42" t="s">
         <v>52</v>
@@ -12724,13 +13397,19 @@
         <v>51</v>
       </c>
       <c r="AR42" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="AS42" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2655</v>
+      </c>
+      <c r="B43">
+        <v>1517</v>
+      </c>
       <c r="R43" t="s">
         <v>10</v>
       </c>
@@ -12738,7 +13417,7 @@
         <v>51</v>
       </c>
       <c r="T43" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="U43" t="s">
         <v>52</v>
@@ -12810,13 +13489,19 @@
         <v>51</v>
       </c>
       <c r="AR43" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="AS43" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2655</v>
+      </c>
+      <c r="B44">
+        <v>1569</v>
+      </c>
       <c r="R44" t="s">
         <v>10</v>
       </c>
@@ -12824,7 +13509,7 @@
         <v>51</v>
       </c>
       <c r="T44" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="U44" t="s">
         <v>52</v>
@@ -12896,13 +13581,19 @@
         <v>51</v>
       </c>
       <c r="AR44" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="AS44" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>208</v>
+      </c>
+      <c r="B45">
+        <v>1415</v>
+      </c>
       <c r="R45" t="s">
         <v>10</v>
       </c>
@@ -12910,7 +13601,7 @@
         <v>51</v>
       </c>
       <c r="T45" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="U45" t="s">
         <v>52</v>
@@ -12982,13 +13673,19 @@
         <v>51</v>
       </c>
       <c r="AR45" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="AS45" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>208</v>
+      </c>
+      <c r="B46">
+        <v>1465</v>
+      </c>
       <c r="R46" t="s">
         <v>10</v>
       </c>
@@ -12996,7 +13693,7 @@
         <v>51</v>
       </c>
       <c r="T46" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="U46" t="s">
         <v>52</v>
@@ -13068,7 +13765,7 @@
         <v>51</v>
       </c>
       <c r="AR46" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="AS46" t="s">
         <v>0</v>
@@ -13082,7 +13779,7 @@
         <v>51</v>
       </c>
       <c r="T47" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="U47" t="s">
         <v>52</v>
@@ -13154,7 +13851,7 @@
         <v>51</v>
       </c>
       <c r="AR47" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="AS47" t="s">
         <v>0</v>
@@ -13240,7 +13937,7 @@
         <v>51</v>
       </c>
       <c r="AR94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AS94" t="s">
         <v>0</v>
@@ -13326,7 +14023,7 @@
         <v>51</v>
       </c>
       <c r="AR95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AS95" t="s">
         <v>0</v>
@@ -13412,7 +14109,7 @@
         <v>51</v>
       </c>
       <c r="AR96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS96" t="s">
         <v>0</v>
@@ -13498,7 +14195,7 @@
         <v>51</v>
       </c>
       <c r="AR97" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AS97" t="s">
         <v>0</v>
@@ -13584,7 +14281,7 @@
         <v>51</v>
       </c>
       <c r="AR98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AS98" t="s">
         <v>0</v>
@@ -13670,7 +14367,7 @@
         <v>51</v>
       </c>
       <c r="AR99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS99" t="s">
         <v>0</v>
@@ -13756,7 +14453,7 @@
         <v>51</v>
       </c>
       <c r="AR100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AS100" t="s">
         <v>0</v>
@@ -13842,7 +14539,7 @@
         <v>51</v>
       </c>
       <c r="AR101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AS101" t="s">
         <v>0</v>
@@ -13928,7 +14625,7 @@
         <v>51</v>
       </c>
       <c r="AR102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AS102" t="s">
         <v>0</v>

--- a/graphics/layouts/MapToolbox.xlsx
+++ b/graphics/layouts/MapToolbox.xlsx
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AR112"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AE28"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9811,6 +9811,7 @@
     <col min="15" max="16" width="2.5703125" customWidth="1"/>
     <col min="17" max="17" width="3.140625" customWidth="1"/>
     <col min="19" max="19" width="3.85546875" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" customWidth="1"/>
     <col min="21" max="21" width="3.85546875" customWidth="1"/>
     <col min="23" max="23" width="3.85546875" customWidth="1"/>
     <col min="25" max="25" width="3.85546875" customWidth="1"/>
@@ -15154,7 +15155,7 @@
   <dimension ref="A2:AS104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2:AN21"/>
+      <selection activeCell="T2" sqref="T2:T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
